--- a/results_SiO4C.xlsx
+++ b/results_SiO4C.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>identifier</t>
   </si>
@@ -25,6 +25,33 @@
     <t>torsion_angle_C</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>crystal_system</t>
+  </si>
+  <si>
+    <t>spacegroup</t>
+  </si>
+  <si>
+    <t>cell_volume</t>
+  </si>
+  <si>
     <t>CEPPIW</t>
   </si>
   <si>
@@ -101,6 +128,45 @@
   </si>
   <si>
     <t>ZOCXUN</t>
+  </si>
+  <si>
+    <t>monoclinic</t>
+  </si>
+  <si>
+    <t>orthorhombic</t>
+  </si>
+  <si>
+    <t>triclinic</t>
+  </si>
+  <si>
+    <t>P21/n</t>
+  </si>
+  <si>
+    <t>Cc</t>
+  </si>
+  <si>
+    <t>Pna21</t>
+  </si>
+  <si>
+    <t>P212121</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>Pbca</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Pnn2</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>P21/c</t>
   </si>
 </sst>
 </file>
@@ -458,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,13 +540,40 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>-0.9294766898576046</v>
@@ -488,13 +581,40 @@
       <c r="D2">
         <v>-0.6773476596844574</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>10.959</v>
+      </c>
+      <c r="F2">
+        <v>20.332</v>
+      </c>
+      <c r="G2">
+        <v>11.448</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>99.07000000000001</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2">
+        <v>2518.930622650423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>-15.44664092106351</v>
@@ -502,13 +622,40 @@
       <c r="D3">
         <v>-14.98209379768843</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>16.529</v>
+      </c>
+      <c r="F3">
+        <v>17.603</v>
+      </c>
+      <c r="G3">
+        <v>8.293000000000001</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>111.63</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3">
+        <v>2243.021267024979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>24.63276029387325</v>
@@ -516,13 +663,40 @@
       <c r="D4">
         <v>25.29055334642561</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>9.397</v>
+      </c>
+      <c r="F4">
+        <v>20.335</v>
+      </c>
+      <c r="G4">
+        <v>11.067</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>102.82</v>
+      </c>
+      <c r="J4">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>2062.053748310455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>3.818705301053504</v>
@@ -530,13 +704,40 @@
       <c r="D5">
         <v>3.846057741958008</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>8.502000000000001</v>
+      </c>
+      <c r="F5">
+        <v>21.141</v>
+      </c>
+      <c r="G5">
+        <v>17.406</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>90.29000000000001</v>
+      </c>
+      <c r="J5">
+        <v>90</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>3128.527977240984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>25.53228526417548</v>
@@ -544,13 +745,40 @@
       <c r="D6">
         <v>28.44368056646855</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>22.367</v>
+      </c>
+      <c r="F6">
+        <v>11.193</v>
+      </c>
+      <c r="G6">
+        <v>10.793</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6">
+        <v>2702.068897983001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>-26.17919103590017</v>
@@ -558,13 +786,40 @@
       <c r="D7">
         <v>-29.68191757357753</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>11.849</v>
+      </c>
+      <c r="F7">
+        <v>17.04</v>
+      </c>
+      <c r="G7">
+        <v>19.857</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7">
+        <v>4009.26650472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>15.00405303954673</v>
@@ -572,13 +827,40 @@
       <c r="D8">
         <v>15.58999415749087</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>10.492</v>
+      </c>
+      <c r="F8">
+        <v>21.104</v>
+      </c>
+      <c r="G8">
+        <v>10.598</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <v>98.92</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8">
+        <v>2318.261971349647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>-178.0142790986201</v>
@@ -586,13 +868,40 @@
       <c r="D9">
         <v>-178.4402625904079</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>13.119</v>
+      </c>
+      <c r="F9">
+        <v>10.1829</v>
+      </c>
+      <c r="G9">
+        <v>13.713</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>93.72200000000001</v>
+      </c>
+      <c r="J9">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9">
+        <v>1828.04840328371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>174.8704179462338</v>
@@ -600,13 +909,40 @@
       <c r="D10">
         <v>176.089464742737</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>24.2277</v>
+      </c>
+      <c r="F10">
+        <v>10.3105</v>
+      </c>
+      <c r="G10">
+        <v>26.2521</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10">
+        <v>6557.766726684287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>-5.689149817421457</v>
@@ -614,13 +950,40 @@
       <c r="D11">
         <v>-7.123104141732661</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>20.643</v>
+      </c>
+      <c r="F11">
+        <v>9.9068</v>
+      </c>
+      <c r="G11">
+        <v>32.6779</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11">
+        <v>6682.828983279961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>170.1245907041794</v>
@@ -628,13 +991,40 @@
       <c r="D12">
         <v>172.2745211270592</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>20.643</v>
+      </c>
+      <c r="F12">
+        <v>9.9068</v>
+      </c>
+      <c r="G12">
+        <v>32.6779</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12">
+        <v>6682.828983279961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>4.539073866683443</v>
@@ -642,13 +1032,40 @@
       <c r="D13">
         <v>1.529360475018376</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>25.448</v>
+      </c>
+      <c r="F13">
+        <v>8.353</v>
+      </c>
+      <c r="G13">
+        <v>12.034</v>
+      </c>
+      <c r="H13">
+        <v>90</v>
+      </c>
+      <c r="I13">
+        <v>99.11</v>
+      </c>
+      <c r="J13">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>2525.766463206617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>-10.69927006662448</v>
@@ -656,13 +1073,40 @@
       <c r="D14">
         <v>-11.97290393511881</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>10.349</v>
+      </c>
+      <c r="F14">
+        <v>8.336</v>
+      </c>
+      <c r="G14">
+        <v>22.771</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="I14">
+        <v>103.61</v>
+      </c>
+      <c r="J14">
+        <v>90</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14">
+        <v>1909.27590145397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>-13.82074027706754</v>
@@ -670,13 +1114,40 @@
       <c r="D15">
         <v>-12.26370065394225</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>14.578</v>
+      </c>
+      <c r="F15">
+        <v>14.141</v>
+      </c>
+      <c r="G15">
+        <v>22.896</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+      <c r="I15">
+        <v>90</v>
+      </c>
+      <c r="J15">
+        <v>90</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15">
+        <v>4719.953114208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>-11.89054568197326</v>
@@ -684,13 +1155,40 @@
       <c r="D16">
         <v>-11.88669172369176</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>9.636000000000001</v>
+      </c>
+      <c r="F16">
+        <v>14.989</v>
+      </c>
+      <c r="G16">
+        <v>14.263</v>
+      </c>
+      <c r="H16">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>104.84</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16">
+        <v>1991.348449942044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>11.71446487441884</v>
@@ -698,13 +1196,40 @@
       <c r="D17">
         <v>11.99832953120711</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>7.498</v>
+      </c>
+      <c r="F17">
+        <v>28.71</v>
+      </c>
+      <c r="G17">
+        <v>14.555</v>
+      </c>
+      <c r="H17">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>102.01</v>
+      </c>
+      <c r="J17">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17">
+        <v>3064.637517440678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>-26.1275196561189</v>
@@ -712,13 +1237,40 @@
       <c r="D18">
         <v>-25.65067262249959</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>9.166</v>
+      </c>
+      <c r="F18">
+        <v>12.912</v>
+      </c>
+      <c r="G18">
+        <v>8.664</v>
+      </c>
+      <c r="H18">
+        <v>90</v>
+      </c>
+      <c r="I18">
+        <v>90</v>
+      </c>
+      <c r="J18">
+        <v>90</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18">
+        <v>1025.396460288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>24.01480705695079</v>
@@ -726,13 +1278,40 @@
       <c r="D19">
         <v>27.98198999961973</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>9.798</v>
+      </c>
+      <c r="F19">
+        <v>20.919</v>
+      </c>
+      <c r="G19">
+        <v>18.3</v>
+      </c>
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19">
+        <v>101.12</v>
+      </c>
+      <c r="J19">
+        <v>90</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19">
+        <v>3680.427162155461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>174.0253779368481</v>
@@ -740,13 +1319,40 @@
       <c r="D20">
         <v>175.1102509361229</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>16.3173</v>
+      </c>
+      <c r="F20">
+        <v>17.8374</v>
+      </c>
+      <c r="G20">
+        <v>21.3223</v>
+      </c>
+      <c r="H20">
+        <v>89.65990000000001</v>
+      </c>
+      <c r="I20">
+        <v>81.8824</v>
+      </c>
+      <c r="J20">
+        <v>84.0998</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20">
+        <v>6111.068783226709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>168.6912008588001</v>
@@ -754,13 +1360,40 @@
       <c r="D21">
         <v>171.1038092651634</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>16.3173</v>
+      </c>
+      <c r="F21">
+        <v>17.8374</v>
+      </c>
+      <c r="G21">
+        <v>21.3223</v>
+      </c>
+      <c r="H21">
+        <v>89.65990000000001</v>
+      </c>
+      <c r="I21">
+        <v>81.8824</v>
+      </c>
+      <c r="J21">
+        <v>84.0998</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21">
+        <v>6111.068783226709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>158.4597322463534</v>
@@ -768,13 +1401,40 @@
       <c r="D22">
         <v>165.516313223176</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>16.0349</v>
+      </c>
+      <c r="F22">
+        <v>19.6695</v>
+      </c>
+      <c r="G22">
+        <v>17.5883</v>
+      </c>
+      <c r="H22">
+        <v>90</v>
+      </c>
+      <c r="I22">
+        <v>93.404</v>
+      </c>
+      <c r="J22">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <v>5537.535607445749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>159.8793003140109</v>
@@ -782,13 +1442,40 @@
       <c r="D23">
         <v>166.579170567358</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>16.104</v>
+      </c>
+      <c r="F23">
+        <v>19.806</v>
+      </c>
+      <c r="G23">
+        <v>17.777</v>
+      </c>
+      <c r="H23">
+        <v>90</v>
+      </c>
+      <c r="I23">
+        <v>94.068</v>
+      </c>
+      <c r="J23">
+        <v>90</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>5655.792257455587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>158.960257877011</v>
@@ -796,13 +1483,40 @@
       <c r="D24">
         <v>166.6950051799013</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>15.9942</v>
+      </c>
+      <c r="F24">
+        <v>19.485</v>
+      </c>
+      <c r="G24">
+        <v>17.562</v>
+      </c>
+      <c r="H24">
+        <v>90</v>
+      </c>
+      <c r="I24">
+        <v>92.07770000000001</v>
+      </c>
+      <c r="J24">
+        <v>90</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>5469.546231810621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>141.2693189303249</v>
@@ -810,13 +1524,40 @@
       <c r="D25">
         <v>148.8401427201464</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>8.1952</v>
+      </c>
+      <c r="F25">
+        <v>16.135</v>
+      </c>
+      <c r="G25">
+        <v>15.308</v>
+      </c>
+      <c r="H25">
+        <v>90</v>
+      </c>
+      <c r="I25">
+        <v>105.152</v>
+      </c>
+      <c r="J25">
+        <v>90</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25">
+        <v>1953.801345886716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>-177.3098653742842</v>
@@ -824,13 +1565,40 @@
       <c r="D26">
         <v>-178.5645199356024</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>11.1082</v>
+      </c>
+      <c r="F26">
+        <v>19.477</v>
+      </c>
+      <c r="G26">
+        <v>11.6299</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
+      <c r="I26">
+        <v>104.598</v>
+      </c>
+      <c r="J26">
+        <v>90</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>2434.952762347637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>159.5656719719389</v>
@@ -838,13 +1606,40 @@
       <c r="D27">
         <v>175.3917240379897</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>43.04</v>
+      </c>
+      <c r="F27">
+        <v>9.038</v>
+      </c>
+      <c r="G27">
+        <v>20.98</v>
+      </c>
+      <c r="H27">
+        <v>90</v>
+      </c>
+      <c r="I27">
+        <v>114.772</v>
+      </c>
+      <c r="J27">
+        <v>90</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27">
+        <v>7410.158398011824</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>-157.6888088837133</v>
@@ -852,13 +1647,40 @@
       <c r="D28">
         <v>-168.8831226047839</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>43.04</v>
+      </c>
+      <c r="F28">
+        <v>9.038</v>
+      </c>
+      <c r="G28">
+        <v>20.98</v>
+      </c>
+      <c r="H28">
+        <v>90</v>
+      </c>
+      <c r="I28">
+        <v>114.772</v>
+      </c>
+      <c r="J28">
+        <v>90</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28">
+        <v>7410.158398011824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>176.3622348291378</v>
@@ -866,13 +1688,40 @@
       <c r="D29">
         <v>177.7601324927572</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>19.998</v>
+      </c>
+      <c r="F29">
+        <v>34.746</v>
+      </c>
+      <c r="G29">
+        <v>24.908</v>
+      </c>
+      <c r="H29">
+        <v>90</v>
+      </c>
+      <c r="I29">
+        <v>101.563</v>
+      </c>
+      <c r="J29">
+        <v>90</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>-174.8225995502977</v>
@@ -880,13 +1729,40 @@
       <c r="D30">
         <v>-176.4764843402988</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>19.998</v>
+      </c>
+      <c r="F30">
+        <v>34.746</v>
+      </c>
+      <c r="G30">
+        <v>24.908</v>
+      </c>
+      <c r="H30">
+        <v>90</v>
+      </c>
+      <c r="I30">
+        <v>101.563</v>
+      </c>
+      <c r="J30">
+        <v>90</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>-173.6130116364656</v>
@@ -894,13 +1770,40 @@
       <c r="D31">
         <v>-175.9227824512471</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>19.998</v>
+      </c>
+      <c r="F31">
+        <v>34.746</v>
+      </c>
+      <c r="G31">
+        <v>24.908</v>
+      </c>
+      <c r="H31">
+        <v>90</v>
+      </c>
+      <c r="I31">
+        <v>101.563</v>
+      </c>
+      <c r="J31">
+        <v>90</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>174.5385519047685</v>
@@ -908,13 +1811,40 @@
       <c r="D32">
         <v>176.6439507049956</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>19.998</v>
+      </c>
+      <c r="F32">
+        <v>34.746</v>
+      </c>
+      <c r="G32">
+        <v>24.908</v>
+      </c>
+      <c r="H32">
+        <v>90</v>
+      </c>
+      <c r="I32">
+        <v>101.563</v>
+      </c>
+      <c r="J32">
+        <v>90</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>172.1039516943275</v>
@@ -922,13 +1852,40 @@
       <c r="D33">
         <v>174.7545186432837</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>19.998</v>
+      </c>
+      <c r="F33">
+        <v>34.746</v>
+      </c>
+      <c r="G33">
+        <v>24.908</v>
+      </c>
+      <c r="H33">
+        <v>90</v>
+      </c>
+      <c r="I33">
+        <v>101.563</v>
+      </c>
+      <c r="J33">
+        <v>90</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>175.3344316749285</v>
@@ -936,13 +1893,40 @@
       <c r="D34">
         <v>177.0389315191314</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>19.998</v>
+      </c>
+      <c r="F34">
+        <v>34.746</v>
+      </c>
+      <c r="G34">
+        <v>24.908</v>
+      </c>
+      <c r="H34">
+        <v>90</v>
+      </c>
+      <c r="I34">
+        <v>101.563</v>
+      </c>
+      <c r="J34">
+        <v>90</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34">
+        <v>16956.0822564207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>-179.4341279591708</v>
@@ -950,19 +1934,73 @@
       <c r="D35">
         <v>-178.7817544602561</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>15.993</v>
+      </c>
+      <c r="F35">
+        <v>21.486</v>
+      </c>
+      <c r="G35">
+        <v>27.205</v>
+      </c>
+      <c r="H35">
+        <v>90</v>
+      </c>
+      <c r="I35">
+        <v>107.14</v>
+      </c>
+      <c r="J35">
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35">
+        <v>8933.151520582505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>-176.4205760574147</v>
       </c>
       <c r="D36">
         <v>-178.4197239240076</v>
+      </c>
+      <c r="E36">
+        <v>15.993</v>
+      </c>
+      <c r="F36">
+        <v>21.486</v>
+      </c>
+      <c r="G36">
+        <v>27.205</v>
+      </c>
+      <c r="H36">
+        <v>90</v>
+      </c>
+      <c r="I36">
+        <v>107.14</v>
+      </c>
+      <c r="J36">
+        <v>90</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>8933.151520582505</v>
       </c>
     </row>
   </sheetData>
